--- a/financial_models/templates/Valuation_v1.01.xlsx
+++ b/financial_models/templates/Valuation_v1.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F3952-64EF-48A7-997F-CB862AC0C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990F19F-F229-4956-B439-30E36EDFADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -1827,7 +1827,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="189" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2576,6 +2576,7 @@
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="191" fontId="26" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2618,7 +2619,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -2815,11 +2818,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3034,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3059,6 +3062,7 @@
       <c r="C4" s="66" t="s">
         <v>283</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3999,7 +4003,7 @@
       <c r="C85" s="91"/>
     </row>
     <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="324" t="s">
+      <c r="B86" s="308" t="s">
         <v>285</v>
       </c>
       <c r="C86" s="84"/>
@@ -4020,11 +4024,11 @@
       <c r="B89" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="308">
+      <c r="C89" s="309">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="308"/>
+      <c r="D89" s="309"/>
       <c r="E89" s="49" t="s">
         <v>182</v>
       </c>
@@ -4038,10 +4042,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="309" t="s">
+      <c r="C90" s="310" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="309"/>
+      <c r="D90" s="310"/>
       <c r="E90" s="296" t="s">
         <v>94</v>
       </c>
@@ -4238,7 +4242,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4261,6 +4265,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4279,8 +4286,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4316,18 +4323,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="325" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="325"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="314" t="str">
+      <c r="C3" s="315" t="str">
         <f>Inputs!C4</f>
         <v>0590.HK</v>
       </c>
-      <c r="D3" s="315"/>
+      <c r="D3" s="316"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4343,40 +4353,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="316" t="str">
+      <c r="C4" s="317" t="str">
         <f>Inputs!C5</f>
         <v>Template</v>
       </c>
-      <c r="D4" s="317"/>
+      <c r="D4" s="318"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="320">
+      <c r="G4" s="321">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="320"/>
+      <c r="H4" s="321"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="318">
+      <c r="C5" s="319">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="312">
+      <c r="G5" s="313">
         <f>G3*G4/1000000</f>
         <v>4614.6677010000003</v>
       </c>
-      <c r="H5" s="312"/>
+      <c r="H5" s="313"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4399,11 +4409,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="313" t="str">
+      <c r="G6" s="314" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="313"/>
+      <c r="H6" s="314"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4662,10 +4672,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="310" t="s">
+      <c r="G28" s="311" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="310"/>
+      <c r="H28" s="311"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4684,11 +4694,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="311" t="e">
+      <c r="G29" s="312" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="311"/>
+      <c r="H29" s="312"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5670,7 +5680,8 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5706,7 +5717,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11047,11 +11058,11 @@
         <v>82</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="321">
+      <c r="D56" s="322">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="319"/>
+      <c r="E56" s="320"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11062,11 +11073,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="320">
+      <c r="D57" s="321">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="320"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11078,11 +11089,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="320">
+      <c r="D58" s="321">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="320"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11323,19 +11334,19 @@
       <c r="B72" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="308">
+      <c r="C72" s="309">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="308"/>
-      <c r="E72" s="322" t="s">
+      <c r="D72" s="309"/>
+      <c r="E72" s="323" t="s">
         <v>182</v>
       </c>
-      <c r="F72" s="322"/>
-      <c r="H72" s="322" t="s">
+      <c r="F72" s="323"/>
+      <c r="H72" s="323" t="s">
         <v>181</v>
       </c>
-      <c r="I72" s="322"/>
+      <c r="I72" s="323"/>
       <c r="K72" s="166" t="s">
         <v>8</v>
       </c>
@@ -11345,18 +11356,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="309" t="s">
+      <c r="C73" s="310" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="309"/>
-      <c r="E73" s="323" t="s">
+      <c r="D73" s="310"/>
+      <c r="E73" s="324" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="309"/>
-      <c r="H73" s="323" t="s">
+      <c r="F73" s="310"/>
+      <c r="H73" s="324" t="s">
         <v>94</v>
       </c>
-      <c r="I73" s="309"/>
+      <c r="I73" s="310"/>
       <c r="K73" s="75"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11815,15 +11826,15 @@
       <c r="D92" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="E92" s="322" t="s">
+      <c r="E92" s="323" t="s">
         <v>182</v>
       </c>
-      <c r="F92" s="322"/>
+      <c r="F92" s="323"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="322" t="s">
+      <c r="H92" s="323" t="s">
         <v>181</v>
       </c>
-      <c r="I92" s="322"/>
+      <c r="I92" s="323"/>
       <c r="K92" s="75"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
